--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H2">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J2">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>22.26131838919289</v>
+        <v>58.18216281554355</v>
       </c>
       <c r="R2">
-        <v>200.351865502736</v>
+        <v>523.6394653398919</v>
       </c>
       <c r="S2">
-        <v>0.00665717865971126</v>
+        <v>0.01629848310804768</v>
       </c>
       <c r="T2">
-        <v>0.006657178659711259</v>
+        <v>0.01629848310804768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H3">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J3">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>64.99657398580132</v>
+        <v>152.7581825222493</v>
       </c>
       <c r="R3">
-        <v>584.9691658722119</v>
+        <v>1374.823642700244</v>
       </c>
       <c r="S3">
-        <v>0.01943702514504616</v>
+        <v>0.04279192345166321</v>
       </c>
       <c r="T3">
-        <v>0.01943702514504616</v>
+        <v>0.0427919234516632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H4">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J4">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>5.874432673468889</v>
+        <v>10.96432745787289</v>
       </c>
       <c r="R4">
-        <v>52.86989406122</v>
+        <v>98.67894712085599</v>
       </c>
       <c r="S4">
-        <v>0.00175673098726771</v>
+        <v>0.003071420813794566</v>
       </c>
       <c r="T4">
-        <v>0.00175673098726771</v>
+        <v>0.003071420813794564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.970950666666665</v>
+        <v>21.08397466666667</v>
       </c>
       <c r="H5">
-        <v>26.912852</v>
+        <v>63.251924</v>
       </c>
       <c r="I5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981215</v>
       </c>
       <c r="J5">
-        <v>0.02838798528205506</v>
+        <v>0.06331801375981214</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>1.795873681741777</v>
+        <v>4.127342656814222</v>
       </c>
       <c r="R5">
-        <v>16.162863135676</v>
+        <v>37.146083911328</v>
       </c>
       <c r="S5">
-        <v>0.0005370504900299354</v>
+        <v>0.001156186386306698</v>
       </c>
       <c r="T5">
-        <v>0.0005370504900299354</v>
+        <v>0.001156186386306698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I6">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J6">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>675.4964641134289</v>
+        <v>751.1869644940037</v>
       </c>
       <c r="R6">
-        <v>6079.468177020861</v>
+        <v>6760.682680446035</v>
       </c>
       <c r="S6">
-        <v>0.2020051358588638</v>
+        <v>0.2104288919373125</v>
       </c>
       <c r="T6">
-        <v>0.2020051358588638</v>
+        <v>0.2104288919373125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I7">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J7">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>1972.253176532888</v>
@@ -883,10 +883,10 @@
         <v>17750.278588796</v>
       </c>
       <c r="S7">
-        <v>0.589796234383696</v>
+        <v>0.5524843616491872</v>
       </c>
       <c r="T7">
-        <v>0.5897962343836959</v>
+        <v>0.5524843616491872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I8">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J8">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>178.2535261490639</v>
+        <v>141.5598778427922</v>
       </c>
       <c r="R8">
-        <v>1604.281735341575</v>
+        <v>1274.03890058513</v>
       </c>
       <c r="S8">
-        <v>0.05330616765599638</v>
+        <v>0.03965495894528114</v>
       </c>
       <c r="T8">
-        <v>0.05330616765599638</v>
+        <v>0.03965495894528114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>816.6423950000001</v>
       </c>
       <c r="I9">
-        <v>0.8614037742994388</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="J9">
-        <v>0.8614037742994389</v>
+        <v>0.8174956765497907</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>54.49391185204278</v>
+        <v>53.28791251071556</v>
       </c>
       <c r="R9">
-        <v>490.445206668385</v>
+        <v>479.5912125964401</v>
       </c>
       <c r="S9">
-        <v>0.01629623640088275</v>
+        <v>0.0149274640180099</v>
       </c>
       <c r="T9">
-        <v>0.01629623640088275</v>
+        <v>0.0149274640180099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H10">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J10">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>85.41615413535246</v>
+        <v>109.2971031582809</v>
       </c>
       <c r="R10">
-        <v>768.7453872181721</v>
+        <v>983.6739284245278</v>
       </c>
       <c r="S10">
-        <v>0.02554343766003216</v>
+        <v>0.03061723565057786</v>
       </c>
       <c r="T10">
-        <v>0.02554343766003216</v>
+        <v>0.03061723565057785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H11">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J11">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>249.3903229260777</v>
+        <v>286.9612614150773</v>
       </c>
       <c r="R11">
-        <v>2244.512906334699</v>
+        <v>2582.651352735696</v>
       </c>
       <c r="S11">
-        <v>0.0745794075039137</v>
+        <v>0.08038603320171191</v>
       </c>
       <c r="T11">
-        <v>0.0745794075039137</v>
+        <v>0.08038603320171189</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H12">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J12">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>22.54005975397945</v>
+        <v>20.59684912407822</v>
       </c>
       <c r="R12">
-        <v>202.860537785815</v>
+        <v>185.371642116704</v>
       </c>
       <c r="S12">
-        <v>0.006740535405829977</v>
+        <v>0.005769764843429178</v>
       </c>
       <c r="T12">
-        <v>0.006740535405829977</v>
+        <v>0.005769764843429176</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.42132633333333</v>
+        <v>39.60693866666666</v>
       </c>
       <c r="H13">
-        <v>103.263979</v>
+        <v>118.820816</v>
       </c>
       <c r="I13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="J13">
-        <v>0.1089240306459696</v>
+        <v>0.1189449677837485</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>6.890725002241888</v>
+        <v>7.753348694883555</v>
       </c>
       <c r="R13">
-        <v>62.016525020177</v>
+        <v>69.780138253952</v>
       </c>
       <c r="S13">
-        <v>0.002060650076193744</v>
+        <v>0.002171934088029529</v>
       </c>
       <c r="T13">
-        <v>0.002060650076193745</v>
+        <v>0.002171934088029528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H14">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I14">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J14">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>1.007052890189333</v>
+        <v>0.2217661811077777</v>
       </c>
       <c r="R14">
-        <v>9.063476011703999</v>
+        <v>1.99589562997</v>
       </c>
       <c r="S14">
-        <v>0.0003011560632915436</v>
+        <v>6.212303190206854E-05</v>
       </c>
       <c r="T14">
-        <v>0.0003011560632915436</v>
+        <v>6.212303190206854E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H15">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I15">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J15">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>2.940301492502</v>
+        <v>0.5822505924766667</v>
       </c>
       <c r="R15">
-        <v>26.462713432518</v>
+        <v>5.24025533229</v>
       </c>
       <c r="S15">
-        <v>0.0008792880999583586</v>
+        <v>0.0001631049962205336</v>
       </c>
       <c r="T15">
-        <v>0.0008792880999583583</v>
+        <v>0.0001631049962205336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H16">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I16">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J16">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.2657463632033333</v>
+        <v>0.04179145138444445</v>
       </c>
       <c r="R16">
-        <v>2.39171726883</v>
+        <v>0.37612306246</v>
       </c>
       <c r="S16">
-        <v>7.947063094304229E-05</v>
+        <v>1.170697738771917E-05</v>
       </c>
       <c r="T16">
-        <v>7.947063094304226E-05</v>
+        <v>1.170697738771917E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.405826</v>
+        <v>0.08036333333333333</v>
       </c>
       <c r="H17">
-        <v>1.217478</v>
+        <v>0.24109</v>
       </c>
       <c r="I17">
-        <v>0.001284209772536402</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="J17">
-        <v>0.001284209772536401</v>
+        <v>0.0002413419066486121</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.08124136001266666</v>
+        <v>0.01573171183111111</v>
       </c>
       <c r="R17">
-        <v>0.7311722401139998</v>
+        <v>0.14158540648</v>
       </c>
       <c r="S17">
-        <v>2.429497834345709E-05</v>
+        <v>4.406901138290778E-06</v>
       </c>
       <c r="T17">
-        <v>2.429497834345708E-05</v>
+        <v>4.406901138290778E-06</v>
       </c>
     </row>
   </sheetData>
